--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchORenewal_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchORenewal_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gw3eraj\projects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reps\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,7 +893,7 @@
         <v>52</v>
       </c>
       <c r="AG3" s="2">
-        <v>20190612</v>
+        <v>20180612</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>29</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchORenewal_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchORenewal_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>VIN</t>
   </si>
@@ -146,61 +146,55 @@
     <t>4 WHEEL STANDARD</t>
   </si>
   <si>
-    <t>JTEDC3EH&amp;B</t>
-  </si>
-  <si>
-    <t>TOYT</t>
-  </si>
-  <si>
-    <t>TOYOTA MOTOR</t>
-  </si>
-  <si>
-    <t>TOYOTA HIGHLANDER</t>
-  </si>
-  <si>
-    <t>HIGHLANDER LD</t>
-  </si>
-  <si>
-    <t>4D WAG</t>
-  </si>
-  <si>
-    <t>WAGON 4 DR</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>HYBRID</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>FRNT/HEAD/SIDE/REAR SIDE AIRBAGS</t>
-  </si>
-  <si>
-    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>SYMBOL_2000</t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>HIGHLANDER</t>
-  </si>
-  <si>
-    <t>HIGHLANDER LIMITED</t>
-  </si>
-  <si>
-    <t>WAGON 4 DOOR</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>1N4BL3AP&amp;H</t>
+  </si>
+  <si>
+    <t>NISS</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>ALTIMA</t>
+  </si>
+  <si>
+    <t>ALTIMA 3.5SL</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
+  </si>
+  <si>
+    <t>1.6L L4</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>DUAL FRNT/HEAD/SIDE/REAR SIDE AIRBAGS</t>
+  </si>
+  <si>
+    <t>F-IMMOBILIZER/KEYLESS ENTRY</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NISSAN MOTOR</t>
+  </si>
+  <si>
+    <t>NISS ALTIMA</t>
+  </si>
+  <si>
+    <t>ALTIMA 4.5SL</t>
   </si>
 </sst>
 </file>
@@ -224,6 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -250,32 +245,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -561,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,204 +681,200 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>214</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2">
+        <v>20000101</v>
+      </c>
+      <c r="AH2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="4">
-        <v>6</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>214</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="4">
-        <v>4</v>
-      </c>
-      <c r="T2" s="4">
-        <v>7</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="4">
-        <v>2</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>20000101</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>214</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>7</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="4">
-        <v>6</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>214</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="4">
-        <v>4</v>
-      </c>
-      <c r="T3" s="4">
-        <v>7</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="4">
-        <v>2</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3">
+        <v>20180612</v>
+      </c>
+      <c r="AH3" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>20180612</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
